--- a/products_data.xlsx
+++ b/products_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="128">
   <si>
     <t>images</t>
   </si>
@@ -39,61 +39,334 @@
     <t>updatedAt</t>
   </si>
   <si>
-    <t>https://hips.hearstapps.com/hmg-prod/images/beautiful-smooth-haired-red-cat-lies-on-the-sofa-royalty-free-image-1678488026.jpg?crop=0.88847xw:1xh;center,top&amp;resize=1200:*</t>
-  </si>
-  <si>
-    <t>2023-11-29T13:28:13.000Z</t>
-  </si>
-  <si>
-    <t>PASAPORTE</t>
+    <t>https://cdn11.bigcommerce.com/s-3stx4pub31/images/…/1210/guaymallen_blanco__99774.1657131398.jpg?c=2</t>
+  </si>
+  <si>
+    <t>2023-11-29T18:39:04.000Z</t>
+  </si>
+  <si>
+    <t>el que esta añadiendo mas productos, se fue a jalar el ganzo</t>
+  </si>
+  <si>
+    <t>alfajor</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>2023-11-30T01:12:44.000Z</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>2023-11-29T18:56:48.000Z</t>
+  </si>
+  <si>
+    <t>el que lo lea es gay</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>2023-11-29T23:19:29.000Z</t>
+  </si>
+  <si>
+    <t>https://placeimg.com/640/480/any</t>
+  </si>
+  <si>
+    <t>2023-11-29T20:15:38.000Z</t>
+  </si>
+  <si>
+    <t>A description</t>
+  </si>
+  <si>
+    <t>New Product Course</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>2023-11-29T20:20:05.000Z</t>
+  </si>
+  <si>
+    <t>Importa un excel</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>2023-11-29T20:23:32.000Z</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:34.000Z</t>
   </si>
   <si>
     <t>New Product</t>
   </si>
   <si>
-    <t>Clothes</t>
-  </si>
-  <si>
-    <t>2023-11-29T16:02:21.000Z</t>
-  </si>
-  <si>
-    <t>https://miro.medium.com/v2/resize:fit:720/format:webp/0*4obA4fS9VWKRLPDY, https://miro.medium.com/v2/resize:fit:1400/0*4obA4fS9VWKRLPDY</t>
-  </si>
-  <si>
-    <t>2023-11-29T15:37:49.000Z</t>
-  </si>
-  <si>
-    <t>CARNET DE EXTRANJERIA</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>2023-11-29T16:02:36.000Z</t>
-  </si>
-  <si>
-    <t>2023-11-29T15:44:35.000Z</t>
-  </si>
-  <si>
-    <t>REGISTRO UNICO DE CONTRIBUYENTE</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>2023-11-29T16:03:00.000Z</t>
-  </si>
-  <si>
-    <t>https://placeimg.com/640/480/any</t>
-  </si>
-  <si>
-    <t>2023-11-29T17:16:58.000Z</t>
-  </si>
-  <si>
-    <t>Soy la descripción del producto</t>
-  </si>
-  <si>
-    <t>Soy el producto</t>
+    <t>2023-11-29T21:07:42.000Z</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>PRODUC</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:43.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO E</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESP</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESPC</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESPCE</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:44.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESPE</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESPEC</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESPECIA</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:45.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO ESPECIAL</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:47.000Z</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:51.000Z</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:52.000Z</t>
+  </si>
+  <si>
+    <t>PRODU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO </t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:53.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO NO </t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DIS</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:54.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISP</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPL</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:55.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPON</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:56.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIB</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO NO DISPONIBLE </t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE NT</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:57.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE N</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO NO DISPONIBLE ENT </t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:58.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE ENT U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO NO DISPONIBLE ENT U </t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE ENT</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:07:59.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE ENTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO NO DISPONIBLE EN </t>
+  </si>
+  <si>
+    <t>2023-11-29T21:08:00.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE EN TU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO NO DISPONIBLE EN TU </t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE EN TU PA</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE EN TU PAI</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:08:01.000Z</t>
+  </si>
+  <si>
+    <t>PRODUCTO NO DISPONIBLE EN TU PAIS</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:08:05.000Z</t>
+  </si>
+  <si>
+    <t>Imagen1.jpg</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:37:21.000Z</t>
+  </si>
+  <si>
+    <t>Camisa azul</t>
+  </si>
+  <si>
+    <t>Camisa</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:37:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.ecoavant.com/uploads/s1/28/20/69/imagen-de-que-es-la-naturaleza_5_640x307.webp</t>
+  </si>
+  <si>
+    <t>2023-11-29T21:53:54.000Z</t>
+  </si>
+  <si>
+    <t>Hola Mundo</t>
+  </si>
+  <si>
+    <t>Nuevo Producto</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>ProyectoWeb-main.rar</t>
+  </si>
+  <si>
+    <t>2023-11-30T00:56:02.000Z</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>2023-11-30T00:57:19.000Z</t>
+  </si>
+  <si>
+    <t>dsadsadsa</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>2023-11-30T00:58:36.000Z</t>
+  </si>
+  <si>
+    <t>sdadsas</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>2023-11-30T01:00:13.000Z</t>
+  </si>
+  <si>
+    <t>sadsa</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t>2023-11-30T01:01:27.000Z</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Convulsiona</t>
+  </si>
+  <si>
+    <t>mesa-mask.png</t>
+  </si>
+  <si>
+    <t>2023-11-30T01:02:13.000Z</t>
+  </si>
+  <si>
+    <t>A awesome background</t>
+  </si>
+  <si>
+    <t>draku-fondo</t>
   </si>
   <si>
     <t>image</t>
@@ -111,25 +384,19 @@
     <t>https://i.imgur.com/ZANVnHE.jpeg</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/Qphac99.jpeg</t>
   </si>
   <si>
-    <t>Furniture</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/qNOjJje.jpeg</t>
   </si>
   <si>
-    <t>Shoes</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/BG8J0Fj.jpg</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
+    <t>2023-11-30T00:33:29.000Z</t>
+  </si>
+  <si>
+    <t>Nueva Categoria</t>
   </si>
 </sst>
 </file>
@@ -174,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -214,13 +481,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>10.0</v>
+        <v>3002.0</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>74.0</v>
+        <v>112.0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>11</v>
@@ -240,74 +507,1686 @@
         <v>15</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1.0</v>
+        <v>130000.0</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>105.0</v>
+        <v>114.0</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>1.0</v>
+        <v>9999.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>106.0</v>
+        <v>115.0</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n" s="0">
         <v>10.0</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>108.0</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s" s="0">
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E52" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E54" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E55" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E56" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E58" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E59" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E60" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E61" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E62" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E63" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E65" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G65" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="0">
-        <v>24</v>
+      <c r="H65" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="E66" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>23425.0</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E67" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -317,7 +2196,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -325,13 +2204,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>4</v>
@@ -342,87 +2221,104 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
